--- a/template/excel2.xlsx
+++ b/template/excel2.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29865" windowHeight="17310" tabRatio="694"/>
+    <workbookView windowWidth="26148" windowHeight="14771" tabRatio="694"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>排放口</t>
   </si>
@@ -108,6 +109,9 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>${b}</t>
   </si>
 </sst>
 </file>
@@ -777,9 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1158,105 +1162,105 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.8916666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.13333333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.5555555555556" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" style="10" customWidth="1"/>
+    <col min="6" max="6" width="40.6666666666667" style="10" customWidth="1"/>
+    <col min="7" max="7" width="32.8888888888889" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.12962962962963" style="10" customWidth="1"/>
+    <col min="10" max="11" width="8" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="24" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4"/>
@@ -1266,145 +1270,145 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>SUM(D4:D4)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" ref="E6:L6" si="0">SUM(E4:E4)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7:L7" si="1">SUM(D6:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" ref="D8:L8" si="2">SUM(D7:D7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1421,4 +1425,250 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:F5" si="0">SUM(D3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:L5" si="1">SUM(H3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:L6" si="2">SUM(D5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:L7" si="3">SUM(D6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>